--- a/Code/Results/Cases/Case_0_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000433456422293</v>
+        <v>1.033400520885426</v>
       </c>
       <c r="D2">
-        <v>1.00836346764581</v>
+        <v>1.034327182574525</v>
       </c>
       <c r="E2">
-        <v>1.013114999405836</v>
+        <v>1.04148653396911</v>
       </c>
       <c r="F2">
-        <v>1.015503896439752</v>
+        <v>1.049490449205274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047562734730136</v>
+        <v>1.033290551877651</v>
       </c>
       <c r="J2">
-        <v>1.022601210607055</v>
+        <v>1.038525453572313</v>
       </c>
       <c r="K2">
-        <v>1.019707502890705</v>
+        <v>1.037126975327753</v>
       </c>
       <c r="L2">
-        <v>1.024394595850595</v>
+        <v>1.044265911982581</v>
       </c>
       <c r="M2">
-        <v>1.026751381632178</v>
+        <v>1.052247361867015</v>
       </c>
       <c r="N2">
-        <v>1.024053421620116</v>
+        <v>1.04000027883692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0053046234397</v>
+        <v>1.034408020088846</v>
       </c>
       <c r="D3">
-        <v>1.012357241398846</v>
+        <v>1.035198260687544</v>
       </c>
       <c r="E3">
-        <v>1.017333076861813</v>
+        <v>1.042416546466402</v>
       </c>
       <c r="F3">
-        <v>1.020402703120621</v>
+        <v>1.050587514690108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048806812951492</v>
+        <v>1.033441152619347</v>
       </c>
       <c r="J3">
-        <v>1.025651716277788</v>
+        <v>1.039175356618244</v>
       </c>
       <c r="K3">
-        <v>1.022834413360983</v>
+        <v>1.037807053238524</v>
       </c>
       <c r="L3">
-        <v>1.027748879155113</v>
+        <v>1.045006248652858</v>
       </c>
       <c r="M3">
-        <v>1.030781017039469</v>
+        <v>1.053155948611114</v>
       </c>
       <c r="N3">
-        <v>1.027108259358799</v>
+        <v>1.040651104819721</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008384677289705</v>
+        <v>1.035059673641464</v>
       </c>
       <c r="D4">
-        <v>1.014887611944366</v>
+        <v>1.035761960277996</v>
       </c>
       <c r="E4">
-        <v>1.020006523691096</v>
+        <v>1.043018542445109</v>
       </c>
       <c r="F4">
-        <v>1.023508644363375</v>
+        <v>1.051297902548048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049575619869809</v>
+        <v>1.033536319260591</v>
       </c>
       <c r="J4">
-        <v>1.027576307087194</v>
+        <v>1.039595039987857</v>
       </c>
       <c r="K4">
-        <v>1.024809616743621</v>
+        <v>1.038246527103056</v>
       </c>
       <c r="L4">
-        <v>1.029869338179771</v>
+        <v>1.045484886589158</v>
       </c>
       <c r="M4">
-        <v>1.033331384405536</v>
+        <v>1.053743786209932</v>
       </c>
       <c r="N4">
-        <v>1.029035583307907</v>
+        <v>1.041071384187858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009662958027973</v>
+        <v>1.035333564906685</v>
       </c>
       <c r="D5">
-        <v>1.015938939284861</v>
+        <v>1.035998951683263</v>
       </c>
       <c r="E5">
-        <v>1.021117536913117</v>
+        <v>1.043271672516164</v>
       </c>
       <c r="F5">
-        <v>1.024799663735096</v>
+        <v>1.051596671969141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049890344611288</v>
+        <v>1.033575780349301</v>
       </c>
       <c r="J5">
-        <v>1.028373985628373</v>
+        <v>1.039771271441099</v>
       </c>
       <c r="K5">
-        <v>1.025628852616397</v>
+        <v>1.038431141964318</v>
       </c>
       <c r="L5">
-        <v>1.03074921850284</v>
+        <v>1.045686007411659</v>
       </c>
       <c r="M5">
-        <v>1.034390381198835</v>
+        <v>1.053990893762609</v>
       </c>
       <c r="N5">
-        <v>1.02983439464411</v>
+        <v>1.041247865909977</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009876633119131</v>
+        <v>1.035379548701312</v>
       </c>
       <c r="D6">
-        <v>1.016114745050176</v>
+        <v>1.036038744269469</v>
       </c>
       <c r="E6">
-        <v>1.021303337885623</v>
+        <v>1.043314177137457</v>
       </c>
       <c r="F6">
-        <v>1.025015584838882</v>
+        <v>1.051646843831131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049942696039396</v>
+        <v>1.033582373946906</v>
       </c>
       <c r="J6">
-        <v>1.028507260401784</v>
+        <v>1.039800849531084</v>
       </c>
       <c r="K6">
-        <v>1.025765763339558</v>
+        <v>1.038462131387007</v>
       </c>
       <c r="L6">
-        <v>1.030896287755741</v>
+        <v>1.04571977068646</v>
       </c>
       <c r="M6">
-        <v>1.034567432328607</v>
+        <v>1.054032383056864</v>
       </c>
       <c r="N6">
-        <v>1.029967858682986</v>
+        <v>1.041277486004243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008401822038228</v>
+        <v>1.035063333641328</v>
       </c>
       <c r="D7">
-        <v>1.014901708128393</v>
+        <v>1.035765126922221</v>
       </c>
       <c r="E7">
-        <v>1.020021419182385</v>
+        <v>1.043021924582132</v>
       </c>
       <c r="F7">
-        <v>1.023525952111522</v>
+        <v>1.051301894239479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049579858328862</v>
+        <v>1.033536848691605</v>
       </c>
       <c r="J7">
-        <v>1.027587010088364</v>
+        <v>1.039597395601267</v>
       </c>
       <c r="K7">
-        <v>1.024820606696832</v>
+        <v>1.038248994486574</v>
       </c>
       <c r="L7">
-        <v>1.029881140087219</v>
+        <v>1.045487574363446</v>
       </c>
       <c r="M7">
-        <v>1.033345585926602</v>
+        <v>1.053747088149934</v>
       </c>
       <c r="N7">
-        <v>1.029046301508567</v>
+        <v>1.041073743146509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002094979897121</v>
+        <v>1.03374106484379</v>
       </c>
       <c r="D8">
-        <v>1.009724618295461</v>
+        <v>1.034621555892857</v>
       </c>
       <c r="E8">
-        <v>1.014552400659145</v>
+        <v>1.041800790978546</v>
       </c>
       <c r="F8">
-        <v>1.017173066151295</v>
+        <v>1.049861101089732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047990785175656</v>
+        <v>1.033341920256333</v>
       </c>
       <c r="J8">
-        <v>1.023642585291221</v>
+        <v>1.038745266457644</v>
       </c>
       <c r="K8">
-        <v>1.020774455177402</v>
+        <v>1.037356930986089</v>
       </c>
       <c r="L8">
-        <v>1.025538793462374</v>
+        <v>1.044516196662694</v>
       </c>
       <c r="M8">
-        <v>1.028125335320367</v>
+        <v>1.052554439016831</v>
       </c>
       <c r="N8">
-        <v>1.02509627517578</v>
+        <v>1.040220403881761</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903998626781422</v>
+        <v>1.031409032854192</v>
       </c>
       <c r="D9">
-        <v>1.000167549305063</v>
+        <v>1.032606883502903</v>
       </c>
       <c r="E9">
-        <v>1.004463654054866</v>
+        <v>1.039650678779623</v>
       </c>
       <c r="F9">
-        <v>1.005461058269612</v>
+        <v>1.047326189755839</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044904586811962</v>
+        <v>1.032980980173104</v>
       </c>
       <c r="J9">
-        <v>1.016296241456238</v>
+        <v>1.037237240908386</v>
       </c>
       <c r="K9">
-        <v>1.013257908723377</v>
+        <v>1.035780569938162</v>
       </c>
       <c r="L9">
-        <v>1.017484724341161</v>
+        <v>1.042801393383744</v>
       </c>
       <c r="M9">
-        <v>1.018466150649417</v>
+        <v>1.05045225738538</v>
       </c>
       <c r="N9">
-        <v>1.017739498689914</v>
+        <v>1.03871023676325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9821656397652171</v>
+        <v>1.029852993312997</v>
       </c>
       <c r="D10">
-        <v>0.9934714188232628</v>
+        <v>1.031264111353209</v>
       </c>
       <c r="E10">
-        <v>0.9973992771459746</v>
+        <v>1.038218437644567</v>
       </c>
       <c r="F10">
-        <v>0.9972633138555873</v>
+        <v>1.045638928930262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042641461348347</v>
+        <v>1.032728655019835</v>
       </c>
       <c r="J10">
-        <v>1.011105159645161</v>
+        <v>1.036227574478175</v>
       </c>
       <c r="K10">
-        <v>1.007959557864443</v>
+        <v>1.034726716475923</v>
       </c>
       <c r="L10">
-        <v>1.011815647752895</v>
+        <v>1.041656128682834</v>
       </c>
       <c r="M10">
-        <v>1.011682156445084</v>
+        <v>1.049050438586347</v>
       </c>
       <c r="N10">
-        <v>1.01254104494724</v>
+        <v>1.037699136490899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9784849640011224</v>
+        <v>1.029178891435843</v>
       </c>
       <c r="D11">
-        <v>0.9904868918466887</v>
+        <v>1.030682765748276</v>
       </c>
       <c r="E11">
-        <v>0.9942514874389548</v>
+        <v>1.037598545083382</v>
       </c>
       <c r="F11">
-        <v>0.9936109067543029</v>
+        <v>1.044908966088334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041609437950818</v>
+        <v>1.032616627585842</v>
       </c>
       <c r="J11">
-        <v>1.008781017166377</v>
+        <v>1.03578935974163</v>
       </c>
       <c r="K11">
-        <v>1.005590469363402</v>
+        <v>1.034269693755286</v>
       </c>
       <c r="L11">
-        <v>1.009282632675783</v>
+        <v>1.041159732664638</v>
       </c>
       <c r="M11">
-        <v>1.008654326284083</v>
+        <v>1.048443353817696</v>
       </c>
       <c r="N11">
-        <v>1.010213601919553</v>
+        <v>1.037260299439163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9770994265917641</v>
+        <v>1.028928450878514</v>
       </c>
       <c r="D12">
-        <v>0.9893647834589854</v>
+        <v>1.030466841243492</v>
       </c>
       <c r="E12">
-        <v>0.9930681138044967</v>
+        <v>1.037368331507013</v>
       </c>
       <c r="F12">
-        <v>0.9922378532372257</v>
+        <v>1.044637920586188</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041217968278805</v>
+        <v>1.032574600081634</v>
       </c>
       <c r="J12">
-        <v>1.007905627519741</v>
+        <v>1.035626434020272</v>
       </c>
       <c r="K12">
-        <v>1.004698613778868</v>
+        <v>1.034099830833151</v>
       </c>
       <c r="L12">
-        <v>1.008329333796915</v>
+        <v>1.040975275984306</v>
       </c>
       <c r="M12">
-        <v>1.007515290112208</v>
+        <v>1.048217842557839</v>
       </c>
       <c r="N12">
-        <v>1.00933696911921</v>
+        <v>1.037097142344593</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9773974783845351</v>
+        <v>1.0289821734513</v>
       </c>
       <c r="D13">
-        <v>0.9896061039942281</v>
+        <v>1.030513157179074</v>
       </c>
       <c r="E13">
-        <v>0.9933226049435139</v>
+        <v>1.037417711187233</v>
       </c>
       <c r="F13">
-        <v>0.9925331355468454</v>
+        <v>1.044696056455178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04130231295409</v>
+        <v>1.032583633919826</v>
       </c>
       <c r="J13">
-        <v>1.008093959701172</v>
+        <v>1.035661389070011</v>
       </c>
       <c r="K13">
-        <v>1.00489046753748</v>
+        <v>1.034136271721372</v>
       </c>
       <c r="L13">
-        <v>1.00853439313022</v>
+        <v>1.041014845870714</v>
       </c>
       <c r="M13">
-        <v>1.007760280771</v>
+        <v>1.048266216070166</v>
       </c>
       <c r="N13">
-        <v>1.009525568753941</v>
+        <v>1.037132147034512</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9783708162498702</v>
+        <v>1.029158190943334</v>
       </c>
       <c r="D14">
-        <v>0.9903944183679639</v>
+        <v>1.030664917090049</v>
       </c>
       <c r="E14">
-        <v>0.9941539627509715</v>
+        <v>1.037579514695446</v>
       </c>
       <c r="F14">
-        <v>0.9934977497863551</v>
+        <v>1.044886559439335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041577246659181</v>
+        <v>1.032613162053121</v>
       </c>
       <c r="J14">
-        <v>1.008708907809323</v>
+        <v>1.035775895374997</v>
       </c>
       <c r="K14">
-        <v>1.005516994233888</v>
+        <v>1.034255654959187</v>
       </c>
       <c r="L14">
-        <v>1.009204090178672</v>
+        <v>1.041144486907086</v>
       </c>
       <c r="M14">
-        <v>1.008560471071959</v>
+        <v>1.048424713249168</v>
       </c>
       <c r="N14">
-        <v>1.010141390158941</v>
+        <v>1.037246815951586</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9789680543176852</v>
+        <v>1.029266634620734</v>
       </c>
       <c r="D15">
-        <v>0.9908783098442948</v>
+        <v>1.03075842313785</v>
       </c>
       <c r="E15">
-        <v>0.9946642907011161</v>
+        <v>1.037679212772185</v>
       </c>
       <c r="F15">
-        <v>0.994089879260046</v>
+        <v>1.045003947236319</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041745555471225</v>
+        <v>1.032631300263405</v>
       </c>
       <c r="J15">
-        <v>1.009086174753414</v>
+        <v>1.035846426191409</v>
       </c>
       <c r="K15">
-        <v>1.00590142558329</v>
+        <v>1.034329197099021</v>
       </c>
       <c r="L15">
-        <v>1.009615045502261</v>
+        <v>1.041224353352432</v>
       </c>
       <c r="M15">
-        <v>1.009051566314748</v>
+        <v>1.048522366884692</v>
       </c>
       <c r="N15">
-        <v>1.010519192865366</v>
+        <v>1.037317446929847</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9824073981319598</v>
+        <v>1.029897724351269</v>
       </c>
       <c r="D16">
-        <v>0.9936676378378472</v>
+        <v>1.031302695157222</v>
       </c>
       <c r="E16">
-        <v>0.9976062469413111</v>
+        <v>1.03825958375418</v>
       </c>
       <c r="F16">
-        <v>0.9975034680382584</v>
+        <v>1.045687387498751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042708830565803</v>
+        <v>1.032736031613735</v>
       </c>
       <c r="J16">
-        <v>1.011257743987422</v>
+        <v>1.036256635835178</v>
       </c>
       <c r="K16">
-        <v>1.008115157048435</v>
+        <v>1.034757032914722</v>
       </c>
       <c r="L16">
-        <v>1.011982050987481</v>
+        <v>1.041689062582058</v>
       </c>
       <c r="M16">
-        <v>1.01188113414832</v>
+        <v>1.049090726972798</v>
       </c>
       <c r="N16">
-        <v>1.012693845976768</v>
+        <v>1.037728239118362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9845332407692685</v>
+        <v>1.03029350282014</v>
       </c>
       <c r="D17">
-        <v>0.9953940302127309</v>
+        <v>1.031644125407862</v>
       </c>
       <c r="E17">
-        <v>0.9994273250803943</v>
+        <v>1.038623709707166</v>
       </c>
       <c r="F17">
-        <v>0.9996165687502687</v>
+        <v>1.046116260938226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0432989167241</v>
+        <v>1.032800985831324</v>
       </c>
       <c r="J17">
-        <v>1.012599038939747</v>
+        <v>1.036513676012214</v>
       </c>
       <c r="K17">
-        <v>1.009483303628837</v>
+        <v>1.035025216649239</v>
       </c>
       <c r="L17">
-        <v>1.013445402818518</v>
+        <v>1.041980431773811</v>
       </c>
       <c r="M17">
-        <v>1.013631324246914</v>
+        <v>1.049447220880161</v>
       </c>
       <c r="N17">
-        <v>1.014037045721774</v>
+        <v>1.037985644321931</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9857621695643248</v>
+        <v>1.03052432220781</v>
       </c>
       <c r="D18">
-        <v>0.9963928519336601</v>
+        <v>1.031843283924211</v>
       </c>
       <c r="E18">
-        <v>1.000481011405076</v>
+        <v>1.038836124940244</v>
       </c>
       <c r="F18">
-        <v>1.000839260914136</v>
+        <v>1.046366476546617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043638101466605</v>
+        <v>1.032838605329689</v>
       </c>
       <c r="J18">
-        <v>1.013374069824929</v>
+        <v>1.036663504517503</v>
       </c>
       <c r="K18">
-        <v>1.010274141302054</v>
+        <v>1.035181576385669</v>
       </c>
       <c r="L18">
-        <v>1.014291447127972</v>
+        <v>1.042150335304562</v>
       </c>
       <c r="M18">
-        <v>1.014643523329728</v>
+        <v>1.049655149238567</v>
       </c>
       <c r="N18">
-        <v>1.014813177239711</v>
+        <v>1.038135685600883</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.986179360964724</v>
+        <v>1.030603020313171</v>
       </c>
       <c r="D19">
-        <v>0.9967320629491067</v>
+        <v>1.031911193175475</v>
       </c>
       <c r="E19">
-        <v>1.000838869541392</v>
+        <v>1.038908557564352</v>
       </c>
       <c r="F19">
-        <v>1.001254525408977</v>
+        <v>1.046451803940788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04375291509629</v>
+        <v>1.032851387270303</v>
       </c>
       <c r="J19">
-        <v>1.013637111302333</v>
+        <v>1.036714575416636</v>
       </c>
       <c r="K19">
-        <v>1.010542596934128</v>
+        <v>1.035234879587342</v>
       </c>
       <c r="L19">
-        <v>1.014578672923354</v>
+        <v>1.042208260003076</v>
       </c>
       <c r="M19">
-        <v>1.014987211823619</v>
+        <v>1.049726045984231</v>
       </c>
       <c r="N19">
-        <v>1.015076592266184</v>
+        <v>1.038186829026551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9843063072219111</v>
+        <v>1.030251042794172</v>
       </c>
       <c r="D20">
-        <v>0.9952096532170407</v>
+        <v>1.0316074923386</v>
       </c>
       <c r="E20">
-        <v>0.9992328271961636</v>
+        <v>1.038584639670703</v>
       </c>
       <c r="F20">
-        <v>0.9993908778747569</v>
+        <v>1.046070240567116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043236125637065</v>
+        <v>1.032794044492477</v>
       </c>
       <c r="J20">
-        <v>1.012455892584168</v>
+        <v>1.036486108238137</v>
       </c>
       <c r="K20">
-        <v>1.009337261359477</v>
+        <v>1.034996450030498</v>
       </c>
       <c r="L20">
-        <v>1.01328917983984</v>
+        <v>1.041949175495413</v>
       </c>
       <c r="M20">
-        <v>1.01344444642355</v>
+        <v>1.049408973335485</v>
       </c>
       <c r="N20">
-        <v>1.013893696081952</v>
+        <v>1.037958037398454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9780847085923772</v>
+        <v>1.029106359535085</v>
       </c>
       <c r="D21">
-        <v>0.9901626589710857</v>
+        <v>1.030620227211535</v>
       </c>
       <c r="E21">
-        <v>0.9939095457319611</v>
+        <v>1.037531866428706</v>
       </c>
       <c r="F21">
-        <v>0.9932141553247434</v>
+        <v>1.044830458429023</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04149651255488</v>
+        <v>1.032604478220611</v>
       </c>
       <c r="J21">
-        <v>1.008528160204541</v>
+        <v>1.03574218034993</v>
       </c>
       <c r="K21">
-        <v>1.005332830672234</v>
+        <v>1.034220502448065</v>
       </c>
       <c r="L21">
-        <v>1.009007229669233</v>
+        <v>1.041106312868187</v>
       </c>
       <c r="M21">
-        <v>1.008325238234042</v>
+        <v>1.048378040135628</v>
       </c>
       <c r="N21">
-        <v>1.009960385871828</v>
+        <v>1.037213053047316</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9740660654930904</v>
+        <v>1.028386367594595</v>
       </c>
       <c r="D22">
-        <v>0.9869107668192413</v>
+        <v>1.029999570729357</v>
       </c>
       <c r="E22">
-        <v>0.9904803132890921</v>
+        <v>1.036870190031362</v>
       </c>
       <c r="F22">
-        <v>0.9892352669747019</v>
+        <v>1.044051509084536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04035553962638</v>
+        <v>1.032482886500001</v>
       </c>
       <c r="J22">
-        <v>1.005988287039054</v>
+        <v>1.035273556837834</v>
       </c>
       <c r="K22">
-        <v>1.002746061278318</v>
+        <v>1.033732029955788</v>
       </c>
       <c r="L22">
-        <v>1.006242745700456</v>
+        <v>1.040575948929649</v>
       </c>
       <c r="M22">
-        <v>1.005023034713366</v>
+        <v>1.047729776740822</v>
       </c>
       <c r="N22">
-        <v>1.007416905795119</v>
+        <v>1.03674376403608</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9762069327937888</v>
+        <v>1.028768075898721</v>
       </c>
       <c r="D23">
-        <v>0.9886423747752134</v>
+        <v>1.030328585052164</v>
       </c>
       <c r="E23">
-        <v>0.9923062942576526</v>
+        <v>1.037220933936271</v>
       </c>
       <c r="F23">
-        <v>0.9913539261631915</v>
+        <v>1.044464392582574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040964974741794</v>
+        <v>1.032547572274136</v>
       </c>
       <c r="J23">
-        <v>1.007341612664859</v>
+        <v>1.03552206694128</v>
       </c>
       <c r="K23">
-        <v>1.004124120447648</v>
+        <v>1.033991035530264</v>
       </c>
       <c r="L23">
-        <v>1.007715335821161</v>
+        <v>1.040857144846731</v>
       </c>
       <c r="M23">
-        <v>1.006781797902917</v>
+        <v>1.048073440431106</v>
       </c>
       <c r="N23">
-        <v>1.008772153298541</v>
+        <v>1.036992627052378</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9844088827602097</v>
+        <v>1.030270228749379</v>
       </c>
       <c r="D24">
-        <v>0.9952929903881738</v>
+        <v>1.031624045220899</v>
       </c>
       <c r="E24">
-        <v>0.9993207386823818</v>
+        <v>1.038602293655788</v>
       </c>
       <c r="F24">
-        <v>0.9994928882169621</v>
+        <v>1.046091035003331</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043264513663192</v>
+        <v>1.032797181810303</v>
       </c>
       <c r="J24">
-        <v>1.012520596847315</v>
+        <v>1.036498565233437</v>
       </c>
       <c r="K24">
-        <v>1.009403273714573</v>
+        <v>1.035009448635143</v>
       </c>
       <c r="L24">
-        <v>1.013359793420389</v>
+        <v>1.041963299007941</v>
       </c>
       <c r="M24">
-        <v>1.013528915162848</v>
+        <v>1.049426255780755</v>
       </c>
       <c r="N24">
-        <v>1.013958492232574</v>
+        <v>1.037970512084116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993496827639454</v>
+        <v>1.032012157957061</v>
       </c>
       <c r="D25">
-        <v>1.002692980454049</v>
+        <v>1.033127667299046</v>
       </c>
       <c r="E25">
-        <v>1.00712879797043</v>
+        <v>1.040206331277004</v>
       </c>
       <c r="F25">
-        <v>1.008554334570612</v>
+        <v>1.047981054452819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04573765252</v>
+        <v>1.033076356272996</v>
       </c>
       <c r="J25">
-        <v>1.018245049159143</v>
+        <v>1.037627864606436</v>
       </c>
       <c r="K25">
-        <v>1.015249634719018</v>
+        <v>1.036188618716203</v>
       </c>
       <c r="L25">
-        <v>1.019617447394763</v>
+        <v>1.043245076800106</v>
       </c>
       <c r="M25">
-        <v>1.021021291197106</v>
+        <v>1.050995787863372</v>
       </c>
       <c r="N25">
-        <v>1.019691073923289</v>
+        <v>1.039101415191756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033400520885426</v>
+        <v>1.000433456422293</v>
       </c>
       <c r="D2">
-        <v>1.034327182574525</v>
+        <v>1.00836346764581</v>
       </c>
       <c r="E2">
-        <v>1.04148653396911</v>
+        <v>1.013114999405836</v>
       </c>
       <c r="F2">
-        <v>1.049490449205274</v>
+        <v>1.015503896439751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033290551877651</v>
+        <v>1.047562734730136</v>
       </c>
       <c r="J2">
-        <v>1.038525453572313</v>
+        <v>1.022601210607055</v>
       </c>
       <c r="K2">
-        <v>1.037126975327753</v>
+        <v>1.019707502890705</v>
       </c>
       <c r="L2">
-        <v>1.044265911982581</v>
+        <v>1.024394595850595</v>
       </c>
       <c r="M2">
-        <v>1.052247361867015</v>
+        <v>1.026751381632178</v>
       </c>
       <c r="N2">
-        <v>1.04000027883692</v>
+        <v>1.024053421620116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034408020088846</v>
+        <v>1.0053046234397</v>
       </c>
       <c r="D3">
-        <v>1.035198260687544</v>
+        <v>1.012357241398846</v>
       </c>
       <c r="E3">
-        <v>1.042416546466402</v>
+        <v>1.017333076861812</v>
       </c>
       <c r="F3">
-        <v>1.050587514690108</v>
+        <v>1.020402703120621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033441152619347</v>
+        <v>1.048806812951492</v>
       </c>
       <c r="J3">
-        <v>1.039175356618244</v>
+        <v>1.025651716277788</v>
       </c>
       <c r="K3">
-        <v>1.037807053238524</v>
+        <v>1.022834413360983</v>
       </c>
       <c r="L3">
-        <v>1.045006248652858</v>
+        <v>1.027748879155113</v>
       </c>
       <c r="M3">
-        <v>1.053155948611114</v>
+        <v>1.030781017039468</v>
       </c>
       <c r="N3">
-        <v>1.040651104819721</v>
+        <v>1.027108259358799</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035059673641464</v>
+        <v>1.008384677289705</v>
       </c>
       <c r="D4">
-        <v>1.035761960277996</v>
+        <v>1.014887611944366</v>
       </c>
       <c r="E4">
-        <v>1.043018542445109</v>
+        <v>1.020006523691096</v>
       </c>
       <c r="F4">
-        <v>1.051297902548048</v>
+        <v>1.023508644363375</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033536319260591</v>
+        <v>1.049575619869809</v>
       </c>
       <c r="J4">
-        <v>1.039595039987857</v>
+        <v>1.027576307087194</v>
       </c>
       <c r="K4">
-        <v>1.038246527103056</v>
+        <v>1.024809616743621</v>
       </c>
       <c r="L4">
-        <v>1.045484886589158</v>
+        <v>1.029869338179771</v>
       </c>
       <c r="M4">
-        <v>1.053743786209932</v>
+        <v>1.033331384405536</v>
       </c>
       <c r="N4">
-        <v>1.041071384187858</v>
+        <v>1.029035583307907</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035333564906685</v>
+        <v>1.009662958027973</v>
       </c>
       <c r="D5">
-        <v>1.035998951683263</v>
+        <v>1.01593893928486</v>
       </c>
       <c r="E5">
-        <v>1.043271672516164</v>
+        <v>1.021117536913116</v>
       </c>
       <c r="F5">
-        <v>1.051596671969141</v>
+        <v>1.024799663735096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033575780349301</v>
+        <v>1.049890344611287</v>
       </c>
       <c r="J5">
-        <v>1.039771271441099</v>
+        <v>1.028373985628372</v>
       </c>
       <c r="K5">
-        <v>1.038431141964318</v>
+        <v>1.025628852616396</v>
       </c>
       <c r="L5">
-        <v>1.045686007411659</v>
+        <v>1.030749218502839</v>
       </c>
       <c r="M5">
-        <v>1.053990893762609</v>
+        <v>1.034390381198835</v>
       </c>
       <c r="N5">
-        <v>1.041247865909977</v>
+        <v>1.029834394644109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035379548701312</v>
+        <v>1.00987663311913</v>
       </c>
       <c r="D6">
-        <v>1.036038744269469</v>
+        <v>1.016114745050175</v>
       </c>
       <c r="E6">
-        <v>1.043314177137457</v>
+        <v>1.021303337885622</v>
       </c>
       <c r="F6">
-        <v>1.051646843831131</v>
+        <v>1.02501558483888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033582373946906</v>
+        <v>1.049942696039395</v>
       </c>
       <c r="J6">
-        <v>1.039800849531084</v>
+        <v>1.028507260401783</v>
       </c>
       <c r="K6">
-        <v>1.038462131387007</v>
+        <v>1.025765763339557</v>
       </c>
       <c r="L6">
-        <v>1.04571977068646</v>
+        <v>1.03089628775574</v>
       </c>
       <c r="M6">
-        <v>1.054032383056864</v>
+        <v>1.034567432328606</v>
       </c>
       <c r="N6">
-        <v>1.041277486004243</v>
+        <v>1.029967858682985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035063333641328</v>
+        <v>1.008401822038227</v>
       </c>
       <c r="D7">
-        <v>1.035765126922221</v>
+        <v>1.014901708128392</v>
       </c>
       <c r="E7">
-        <v>1.043021924582132</v>
+        <v>1.020021419182384</v>
       </c>
       <c r="F7">
-        <v>1.051301894239479</v>
+        <v>1.023525952111521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033536848691605</v>
+        <v>1.049579858328862</v>
       </c>
       <c r="J7">
-        <v>1.039597395601267</v>
+        <v>1.027587010088364</v>
       </c>
       <c r="K7">
-        <v>1.038248994486574</v>
+        <v>1.024820606696832</v>
       </c>
       <c r="L7">
-        <v>1.045487574363446</v>
+        <v>1.029881140087218</v>
       </c>
       <c r="M7">
-        <v>1.053747088149934</v>
+        <v>1.033345585926602</v>
       </c>
       <c r="N7">
-        <v>1.041073743146509</v>
+        <v>1.029046301508566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03374106484379</v>
+        <v>1.002094979897121</v>
       </c>
       <c r="D8">
-        <v>1.034621555892857</v>
+        <v>1.009724618295461</v>
       </c>
       <c r="E8">
-        <v>1.041800790978546</v>
+        <v>1.014552400659145</v>
       </c>
       <c r="F8">
-        <v>1.049861101089732</v>
+        <v>1.017173066151295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033341920256333</v>
+        <v>1.047990785175656</v>
       </c>
       <c r="J8">
-        <v>1.038745266457644</v>
+        <v>1.023642585291221</v>
       </c>
       <c r="K8">
-        <v>1.037356930986089</v>
+        <v>1.020774455177403</v>
       </c>
       <c r="L8">
-        <v>1.044516196662694</v>
+        <v>1.025538793462374</v>
       </c>
       <c r="M8">
-        <v>1.052554439016831</v>
+        <v>1.028125335320367</v>
       </c>
       <c r="N8">
-        <v>1.040220403881761</v>
+        <v>1.02509627517578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031409032854192</v>
+        <v>0.9903998626781415</v>
       </c>
       <c r="D9">
-        <v>1.032606883502903</v>
+        <v>1.000167549305063</v>
       </c>
       <c r="E9">
-        <v>1.039650678779623</v>
+        <v>1.004463654054865</v>
       </c>
       <c r="F9">
-        <v>1.047326189755839</v>
+        <v>1.005461058269611</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032980980173104</v>
+        <v>1.044904586811962</v>
       </c>
       <c r="J9">
-        <v>1.037237240908386</v>
+        <v>1.016296241456238</v>
       </c>
       <c r="K9">
-        <v>1.035780569938162</v>
+        <v>1.013257908723376</v>
       </c>
       <c r="L9">
-        <v>1.042801393383744</v>
+        <v>1.01748472434116</v>
       </c>
       <c r="M9">
-        <v>1.05045225738538</v>
+        <v>1.018466150649416</v>
       </c>
       <c r="N9">
-        <v>1.03871023676325</v>
+        <v>1.017739498689914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029852993312997</v>
+        <v>0.9821656397652159</v>
       </c>
       <c r="D10">
-        <v>1.031264111353209</v>
+        <v>0.993471418823262</v>
       </c>
       <c r="E10">
-        <v>1.038218437644567</v>
+        <v>0.9973992771459739</v>
       </c>
       <c r="F10">
-        <v>1.045638928930262</v>
+        <v>0.9972633138555865</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032728655019835</v>
+        <v>1.042641461348347</v>
       </c>
       <c r="J10">
-        <v>1.036227574478175</v>
+        <v>1.01110515964516</v>
       </c>
       <c r="K10">
-        <v>1.034726716475923</v>
+        <v>1.007959557864442</v>
       </c>
       <c r="L10">
-        <v>1.041656128682834</v>
+        <v>1.011815647752894</v>
       </c>
       <c r="M10">
-        <v>1.049050438586347</v>
+        <v>1.011682156445083</v>
       </c>
       <c r="N10">
-        <v>1.037699136490899</v>
+        <v>1.012541044947239</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029178891435843</v>
+        <v>0.9784849640011224</v>
       </c>
       <c r="D11">
-        <v>1.030682765748276</v>
+        <v>0.9904868918466886</v>
       </c>
       <c r="E11">
-        <v>1.037598545083382</v>
+        <v>0.9942514874389548</v>
       </c>
       <c r="F11">
-        <v>1.044908966088334</v>
+        <v>0.9936109067543027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032616627585842</v>
+        <v>1.041609437950818</v>
       </c>
       <c r="J11">
-        <v>1.03578935974163</v>
+        <v>1.008781017166377</v>
       </c>
       <c r="K11">
-        <v>1.034269693755286</v>
+        <v>1.005590469363402</v>
       </c>
       <c r="L11">
-        <v>1.041159732664638</v>
+        <v>1.009282632675783</v>
       </c>
       <c r="M11">
-        <v>1.048443353817696</v>
+        <v>1.008654326284083</v>
       </c>
       <c r="N11">
-        <v>1.037260299439163</v>
+        <v>1.010213601919553</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028928450878514</v>
+        <v>0.9770994265917636</v>
       </c>
       <c r="D12">
-        <v>1.030466841243492</v>
+        <v>0.9893647834589854</v>
       </c>
       <c r="E12">
-        <v>1.037368331507013</v>
+        <v>0.9930681138044967</v>
       </c>
       <c r="F12">
-        <v>1.044637920586188</v>
+        <v>0.9922378532372254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032574600081634</v>
+        <v>1.041217968278805</v>
       </c>
       <c r="J12">
-        <v>1.035626434020272</v>
+        <v>1.00790562751974</v>
       </c>
       <c r="K12">
-        <v>1.034099830833151</v>
+        <v>1.004698613778868</v>
       </c>
       <c r="L12">
-        <v>1.040975275984306</v>
+        <v>1.008329333796915</v>
       </c>
       <c r="M12">
-        <v>1.048217842557839</v>
+        <v>1.007515290112208</v>
       </c>
       <c r="N12">
-        <v>1.037097142344593</v>
+        <v>1.00933696911921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0289821734513</v>
+        <v>0.9773974783845358</v>
       </c>
       <c r="D13">
-        <v>1.030513157179074</v>
+        <v>0.9896061039942291</v>
       </c>
       <c r="E13">
-        <v>1.037417711187233</v>
+        <v>0.9933226049435148</v>
       </c>
       <c r="F13">
-        <v>1.044696056455178</v>
+        <v>0.9925331355468467</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032583633919826</v>
+        <v>1.04130231295409</v>
       </c>
       <c r="J13">
-        <v>1.035661389070011</v>
+        <v>1.008093959701173</v>
       </c>
       <c r="K13">
-        <v>1.034136271721372</v>
+        <v>1.004890467537481</v>
       </c>
       <c r="L13">
-        <v>1.041014845870714</v>
+        <v>1.008534393130221</v>
       </c>
       <c r="M13">
-        <v>1.048266216070166</v>
+        <v>1.007760280771001</v>
       </c>
       <c r="N13">
-        <v>1.037132147034512</v>
+        <v>1.009525568753942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029158190943334</v>
+        <v>0.9783708162498692</v>
       </c>
       <c r="D14">
-        <v>1.030664917090049</v>
+        <v>0.9903944183679632</v>
       </c>
       <c r="E14">
-        <v>1.037579514695446</v>
+        <v>0.9941539627509708</v>
       </c>
       <c r="F14">
-        <v>1.044886559439335</v>
+        <v>0.9934977497863542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032613162053121</v>
+        <v>1.041577246659181</v>
       </c>
       <c r="J14">
-        <v>1.035775895374997</v>
+        <v>1.008708907809322</v>
       </c>
       <c r="K14">
-        <v>1.034255654959187</v>
+        <v>1.005516994233887</v>
       </c>
       <c r="L14">
-        <v>1.041144486907086</v>
+        <v>1.009204090178672</v>
       </c>
       <c r="M14">
-        <v>1.048424713249168</v>
+        <v>1.008560471071958</v>
       </c>
       <c r="N14">
-        <v>1.037246815951586</v>
+        <v>1.01014139015894</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029266634620734</v>
+        <v>0.9789680543176847</v>
       </c>
       <c r="D15">
-        <v>1.03075842313785</v>
+        <v>0.9908783098442945</v>
       </c>
       <c r="E15">
-        <v>1.037679212772185</v>
+        <v>0.9946642907011155</v>
       </c>
       <c r="F15">
-        <v>1.045003947236319</v>
+        <v>0.994089879260045</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032631300263405</v>
+        <v>1.041745555471225</v>
       </c>
       <c r="J15">
-        <v>1.035846426191409</v>
+        <v>1.009086174753413</v>
       </c>
       <c r="K15">
-        <v>1.034329197099021</v>
+        <v>1.005901425583289</v>
       </c>
       <c r="L15">
-        <v>1.041224353352432</v>
+        <v>1.009615045502261</v>
       </c>
       <c r="M15">
-        <v>1.048522366884692</v>
+        <v>1.009051566314747</v>
       </c>
       <c r="N15">
-        <v>1.037317446929847</v>
+        <v>1.010519192865365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029897724351269</v>
+        <v>0.9824073981319585</v>
       </c>
       <c r="D16">
-        <v>1.031302695157222</v>
+        <v>0.9936676378378462</v>
       </c>
       <c r="E16">
-        <v>1.03825958375418</v>
+        <v>0.9976062469413094</v>
       </c>
       <c r="F16">
-        <v>1.045687387498751</v>
+        <v>0.9975034680382567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032736031613735</v>
+        <v>1.042708830565802</v>
       </c>
       <c r="J16">
-        <v>1.036256635835178</v>
+        <v>1.01125774398742</v>
       </c>
       <c r="K16">
-        <v>1.034757032914722</v>
+        <v>1.008115157048434</v>
       </c>
       <c r="L16">
-        <v>1.041689062582058</v>
+        <v>1.011982050987479</v>
       </c>
       <c r="M16">
-        <v>1.049090726972798</v>
+        <v>1.011881134148318</v>
       </c>
       <c r="N16">
-        <v>1.037728239118362</v>
+        <v>1.012693845976767</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03029350282014</v>
+        <v>0.9845332407692686</v>
       </c>
       <c r="D17">
-        <v>1.031644125407862</v>
+        <v>0.9953940302127312</v>
       </c>
       <c r="E17">
-        <v>1.038623709707166</v>
+        <v>0.9994273250803941</v>
       </c>
       <c r="F17">
-        <v>1.046116260938226</v>
+        <v>0.9996165687502684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032800985831324</v>
+        <v>1.0432989167241</v>
       </c>
       <c r="J17">
-        <v>1.036513676012214</v>
+        <v>1.012599038939747</v>
       </c>
       <c r="K17">
-        <v>1.035025216649239</v>
+        <v>1.009483303628837</v>
       </c>
       <c r="L17">
-        <v>1.041980431773811</v>
+        <v>1.013445402818518</v>
       </c>
       <c r="M17">
-        <v>1.049447220880161</v>
+        <v>1.013631324246914</v>
       </c>
       <c r="N17">
-        <v>1.037985644321931</v>
+        <v>1.014037045721774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03052432220781</v>
+        <v>0.9857621695643239</v>
       </c>
       <c r="D18">
-        <v>1.031843283924211</v>
+        <v>0.9963928519336595</v>
       </c>
       <c r="E18">
-        <v>1.038836124940244</v>
+        <v>1.000481011405076</v>
       </c>
       <c r="F18">
-        <v>1.046366476546617</v>
+        <v>1.000839260914135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032838605329689</v>
+        <v>1.043638101466605</v>
       </c>
       <c r="J18">
-        <v>1.036663504517503</v>
+        <v>1.013374069824928</v>
       </c>
       <c r="K18">
-        <v>1.035181576385669</v>
+        <v>1.010274141302054</v>
       </c>
       <c r="L18">
-        <v>1.042150335304562</v>
+        <v>1.014291447127971</v>
       </c>
       <c r="M18">
-        <v>1.049655149238567</v>
+        <v>1.014643523329727</v>
       </c>
       <c r="N18">
-        <v>1.038135685600883</v>
+        <v>1.01481317723971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030603020313171</v>
+        <v>0.9861793609647231</v>
       </c>
       <c r="D19">
-        <v>1.031911193175475</v>
+        <v>0.9967320629491058</v>
       </c>
       <c r="E19">
-        <v>1.038908557564352</v>
+        <v>1.000838869541391</v>
       </c>
       <c r="F19">
-        <v>1.046451803940788</v>
+        <v>1.001254525408976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032851387270303</v>
+        <v>1.04375291509629</v>
       </c>
       <c r="J19">
-        <v>1.036714575416636</v>
+        <v>1.013637111302331</v>
       </c>
       <c r="K19">
-        <v>1.035234879587342</v>
+        <v>1.010542596934127</v>
       </c>
       <c r="L19">
-        <v>1.042208260003076</v>
+        <v>1.014578672923353</v>
       </c>
       <c r="M19">
-        <v>1.049726045984231</v>
+        <v>1.014987211823618</v>
       </c>
       <c r="N19">
-        <v>1.038186829026551</v>
+        <v>1.015076592266182</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030251042794172</v>
+        <v>0.9843063072219106</v>
       </c>
       <c r="D20">
-        <v>1.0316074923386</v>
+        <v>0.9952096532170402</v>
       </c>
       <c r="E20">
-        <v>1.038584639670703</v>
+        <v>0.9992328271961631</v>
       </c>
       <c r="F20">
-        <v>1.046070240567116</v>
+        <v>0.9993908778747566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032794044492477</v>
+        <v>1.043236125637064</v>
       </c>
       <c r="J20">
-        <v>1.036486108238137</v>
+        <v>1.012455892584168</v>
       </c>
       <c r="K20">
-        <v>1.034996450030498</v>
+        <v>1.009337261359476</v>
       </c>
       <c r="L20">
-        <v>1.041949175495413</v>
+        <v>1.013289179839839</v>
       </c>
       <c r="M20">
-        <v>1.049408973335485</v>
+        <v>1.013444446423549</v>
       </c>
       <c r="N20">
-        <v>1.037958037398454</v>
+        <v>1.013893696081951</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029106359535085</v>
+        <v>0.9780847085923775</v>
       </c>
       <c r="D21">
-        <v>1.030620227211535</v>
+        <v>0.9901626589710856</v>
       </c>
       <c r="E21">
-        <v>1.037531866428706</v>
+        <v>0.9939095457319614</v>
       </c>
       <c r="F21">
-        <v>1.044830458429023</v>
+        <v>0.9932141553247437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032604478220611</v>
+        <v>1.04149651255488</v>
       </c>
       <c r="J21">
-        <v>1.03574218034993</v>
+        <v>1.008528160204542</v>
       </c>
       <c r="K21">
-        <v>1.034220502448065</v>
+        <v>1.005332830672234</v>
       </c>
       <c r="L21">
-        <v>1.041106312868187</v>
+        <v>1.009007229669233</v>
       </c>
       <c r="M21">
-        <v>1.048378040135628</v>
+        <v>1.008325238234043</v>
       </c>
       <c r="N21">
-        <v>1.037213053047316</v>
+        <v>1.009960385871829</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028386367594595</v>
+        <v>0.9740660654930887</v>
       </c>
       <c r="D22">
-        <v>1.029999570729357</v>
+        <v>0.9869107668192395</v>
       </c>
       <c r="E22">
-        <v>1.036870190031362</v>
+        <v>0.9904803132890907</v>
       </c>
       <c r="F22">
-        <v>1.044051509084536</v>
+        <v>0.9892352669747002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032482886500001</v>
+        <v>1.04035553962638</v>
       </c>
       <c r="J22">
-        <v>1.035273556837834</v>
+        <v>1.005988287039053</v>
       </c>
       <c r="K22">
-        <v>1.033732029955788</v>
+        <v>1.002746061278317</v>
       </c>
       <c r="L22">
-        <v>1.040575948929649</v>
+        <v>1.006242745700454</v>
       </c>
       <c r="M22">
-        <v>1.047729776740822</v>
+        <v>1.005023034713365</v>
       </c>
       <c r="N22">
-        <v>1.03674376403608</v>
+        <v>1.007416905795118</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028768075898721</v>
+        <v>0.9762069327937883</v>
       </c>
       <c r="D23">
-        <v>1.030328585052164</v>
+        <v>0.9886423747752129</v>
       </c>
       <c r="E23">
-        <v>1.037220933936271</v>
+        <v>0.9923062942576522</v>
       </c>
       <c r="F23">
-        <v>1.044464392582574</v>
+        <v>0.9913539261631907</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032547572274136</v>
+        <v>1.040964974741794</v>
       </c>
       <c r="J23">
-        <v>1.03552206694128</v>
+        <v>1.007341612664858</v>
       </c>
       <c r="K23">
-        <v>1.033991035530264</v>
+        <v>1.004124120447648</v>
       </c>
       <c r="L23">
-        <v>1.040857144846731</v>
+        <v>1.007715335821161</v>
       </c>
       <c r="M23">
-        <v>1.048073440431106</v>
+        <v>1.006781797902916</v>
       </c>
       <c r="N23">
-        <v>1.036992627052378</v>
+        <v>1.00877215329854</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030270228749379</v>
+        <v>0.9844088827602093</v>
       </c>
       <c r="D24">
-        <v>1.031624045220899</v>
+        <v>0.9952929903881735</v>
       </c>
       <c r="E24">
-        <v>1.038602293655788</v>
+        <v>0.9993207386823818</v>
       </c>
       <c r="F24">
-        <v>1.046091035003331</v>
+        <v>0.9994928882169619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032797181810303</v>
+        <v>1.043264513663192</v>
       </c>
       <c r="J24">
-        <v>1.036498565233437</v>
+        <v>1.012520596847315</v>
       </c>
       <c r="K24">
-        <v>1.035009448635143</v>
+        <v>1.009403273714573</v>
       </c>
       <c r="L24">
-        <v>1.041963299007941</v>
+        <v>1.013359793420389</v>
       </c>
       <c r="M24">
-        <v>1.049426255780755</v>
+        <v>1.013528915162848</v>
       </c>
       <c r="N24">
-        <v>1.037970512084116</v>
+        <v>1.013958492232574</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032012157957061</v>
+        <v>0.9934968276394539</v>
       </c>
       <c r="D25">
-        <v>1.033127667299046</v>
+        <v>1.002692980454049</v>
       </c>
       <c r="E25">
-        <v>1.040206331277004</v>
+        <v>1.00712879797043</v>
       </c>
       <c r="F25">
-        <v>1.047981054452819</v>
+        <v>1.008554334570612</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033076356272996</v>
+        <v>1.04573765252</v>
       </c>
       <c r="J25">
-        <v>1.037627864606436</v>
+        <v>1.018245049159143</v>
       </c>
       <c r="K25">
-        <v>1.036188618716203</v>
+        <v>1.015249634719018</v>
       </c>
       <c r="L25">
-        <v>1.043245076800106</v>
+        <v>1.019617447394762</v>
       </c>
       <c r="M25">
-        <v>1.050995787863372</v>
+        <v>1.021021291197106</v>
       </c>
       <c r="N25">
-        <v>1.039101415191756</v>
+        <v>1.019691073923288</v>
       </c>
     </row>
   </sheetData>
